--- a/Rapport/tableau des response Graphe genere.xlsx
+++ b/Rapport/tableau des response Graphe genere.xlsx
@@ -5,34 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1d73ca242a620d5/Education/Documents/IUT Première année/S2/Methode numérique/SAE2.02_graphe_mangin215u_simonin89u/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1d73ca242a620d5/Education/Documents/IUT Première année/S2/Methode numérique/SAE2.02_graphe_mangin215u_simonin89u/Rapport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_D47F1D7EC01469F562A8435001AA95E0052E2B52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BF178FB-5F56-4368-A661-EEDB74707B07}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_38565E6AC01469F562A8435001AA95E015A339CE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98C8C381-F6D8-48D8-9977-6E64AB4D7DAF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Temps Dijkstra</t>
   </si>
@@ -50,9 +38,6 @@
   </si>
   <si>
     <t>graphe4</t>
-  </si>
-  <si>
-    <t>Ratio</t>
   </si>
 </sst>
 </file>
@@ -88,9 +73,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,88 +389,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.08984375" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2499600</v>
+        <v>1148100</v>
       </c>
       <c r="C2">
-        <v>1031300</v>
-      </c>
-      <c r="D2" s="1">
-        <f>B2/C2</f>
-        <v>2.4237370309318336</v>
+        <v>1245000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>481800</v>
+        <v>446500</v>
       </c>
       <c r="C3">
-        <v>314300</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D5" si="0">B3/C3</f>
-        <v>1.5329303213490295</v>
+        <v>408800</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>622700</v>
+        <v>663900</v>
       </c>
       <c r="C4">
-        <v>476900</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3057244705388971</v>
+        <v>801500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>25439500</v>
+        <v>37361700</v>
       </c>
       <c r="C5">
-        <v>5127300</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>4.9615782185555748</v>
+        <v>6290900</v>
       </c>
     </row>
   </sheetData>
